--- a/Implementation/Outputs.xlsx
+++ b/Implementation/Outputs.xlsx
@@ -1,46 +1,72 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Deba\Desktop\LNT\Genesis\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D020AD0F-83CB-4C0C-88B5-F4C532DEEE0C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A837D00D-20E8-432B-9E6D-52830673022B}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="output" sheetId="1" r:id="rId1"/>
+    <sheet name="output" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="5">
     <font>
+      <name val="Calibri"/>
+      <charset val="1"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
       <sz val="11"/>
-      <color theme="1"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="0"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="0"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="0"/>
+      <sz val="10"/>
+    </font>
+    <font>
       <name val="Calibri"/>
+      <charset val="1"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFDBB6"/>
+        <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAFD095"/>
+        <bgColor rgb="FF99CCFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -52,25 +78,120 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
+    <cellStyle name="Currency" xfId="3" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Percent" xfId="5" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFAFD095"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFDBB6"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -85,44 +206,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -149,32 +270,14 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -201,24 +304,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -230,153 +315,738 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D92CC7CB-0A3B-4BD2-971B-C0A59CCB30A1}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
+  </sheetPr>
+  <dimension ref="A1:V8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="I13" activeCellId="0" sqref="I13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.62890625" defaultRowHeight="13.8" zeroHeight="0" outlineLevelRow="0"/>
+  <cols>
+    <col width="14.92" customWidth="1" style="6" min="1" max="1"/>
+    <col width="10.37" customWidth="1" style="6" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="13.8" customHeight="1" s="7">
+      <c r="A1" s="8" t="inlineStr">
+        <is>
+          <t>Entered PS No</t>
+        </is>
+      </c>
+      <c r="B1" s="8" t="inlineStr">
+        <is>
+          <t>sheet_name</t>
+        </is>
+      </c>
+      <c r="C1" s="8" t="inlineStr">
+        <is>
+          <t>Op 1</t>
+        </is>
+      </c>
+      <c r="D1" s="8" t="inlineStr">
+        <is>
+          <t>Op 2</t>
+        </is>
+      </c>
+      <c r="E1" s="8" t="inlineStr">
+        <is>
+          <t>Op 3</t>
+        </is>
+      </c>
+      <c r="F1" s="8" t="inlineStr">
+        <is>
+          <t>Op 4</t>
+        </is>
+      </c>
+      <c r="G1" s="8" t="inlineStr">
+        <is>
+          <t>Op 5</t>
+        </is>
+      </c>
+      <c r="H1" s="8" t="inlineStr">
+        <is>
+          <t>Op 6</t>
+        </is>
+      </c>
+      <c r="I1" s="8" t="inlineStr">
+        <is>
+          <t>Op 7</t>
+        </is>
+      </c>
+      <c r="J1" s="8" t="inlineStr">
+        <is>
+          <t>Op 8</t>
+        </is>
+      </c>
+      <c r="K1" s="8" t="inlineStr">
+        <is>
+          <t>Op 9</t>
+        </is>
+      </c>
+      <c r="L1" s="8" t="inlineStr">
+        <is>
+          <t>Op 10</t>
+        </is>
+      </c>
+      <c r="M1" s="8" t="inlineStr">
+        <is>
+          <t>Op 11</t>
+        </is>
+      </c>
+      <c r="N1" s="8" t="inlineStr">
+        <is>
+          <t>Op 12</t>
+        </is>
+      </c>
+      <c r="O1" s="8" t="inlineStr">
+        <is>
+          <t>Op 13</t>
+        </is>
+      </c>
+      <c r="P1" s="8" t="inlineStr">
+        <is>
+          <t>Op 14</t>
+        </is>
+      </c>
+      <c r="Q1" s="8" t="inlineStr">
+        <is>
+          <t>Op 15</t>
+        </is>
+      </c>
+      <c r="R1" s="8" t="inlineStr">
+        <is>
+          <t>Op 16</t>
+        </is>
+      </c>
+      <c r="S1" s="8" t="inlineStr">
+        <is>
+          <t>Op 17</t>
+        </is>
+      </c>
+      <c r="T1" s="8" t="inlineStr">
+        <is>
+          <t>Op 18</t>
+        </is>
+      </c>
+      <c r="U1" s="8" t="inlineStr">
+        <is>
+          <t>Op 19</t>
+        </is>
+      </c>
+      <c r="V1" s="9" t="n"/>
+    </row>
+    <row r="2" ht="36.2" customHeight="1" s="7">
+      <c r="A2" s="10" t="inlineStr">
+        <is>
+          <t>Entered Ps_number 
+From user</t>
+        </is>
+      </c>
+      <c r="B2" s="10" t="inlineStr">
+        <is>
+          <t>Entered
+Sheet_name</t>
+        </is>
+      </c>
+      <c r="C2" s="11" t="inlineStr">
+        <is>
+          <t>OUTPUTS FOR THE ENTERED PS NUMBER AND ENTERED SHEET BY THE USER</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="13.8" customHeight="1" s="7">
+      <c r="A3" s="6" t="inlineStr">
+        <is>
+          <t>99004351</t>
+        </is>
+      </c>
+      <c r="B3" s="6" t="inlineStr">
+        <is>
+          <t>Sem</t>
+        </is>
+      </c>
+      <c r="C3" s="6" t="n">
+        <v>93</v>
+      </c>
+      <c r="D3" s="6" t="n">
+        <v>52</v>
+      </c>
+      <c r="E3" s="6" t="n">
+        <v>65</v>
+      </c>
+      <c r="F3" s="6" t="n">
+        <v>39</v>
+      </c>
+      <c r="G3" s="6" t="n">
+        <v>87</v>
+      </c>
+      <c r="H3" s="6" t="n">
+        <v>43</v>
+      </c>
+      <c r="I3" s="6" t="n">
+        <v>55</v>
+      </c>
+      <c r="J3" s="6" t="n">
+        <v>65</v>
+      </c>
+      <c r="K3" s="6" t="n">
+        <v>99</v>
+      </c>
+      <c r="L3" s="6" t="n">
+        <v>91</v>
+      </c>
+      <c r="M3" s="6" t="n">
+        <v>64</v>
+      </c>
+      <c r="N3" s="6" t="n">
+        <v>75</v>
+      </c>
+      <c r="O3" s="6" t="n">
+        <v>79</v>
+      </c>
+      <c r="P3" s="6" t="n">
+        <v>86</v>
+      </c>
+      <c r="Q3" s="6" t="n">
+        <v>44</v>
+      </c>
+      <c r="R3" s="6" t="n">
+        <v>75</v>
+      </c>
+      <c r="S3" s="6" t="n">
+        <v>98</v>
+      </c>
+      <c r="T3" s="6" t="n">
+        <v>23</v>
+      </c>
+      <c r="U3" s="6" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" ht="13.8" customHeight="1" s="7">
+      <c r="A4" s="6" t="inlineStr">
+        <is>
+          <t>99004365</t>
+        </is>
+      </c>
+      <c r="B4" s="6" t="inlineStr">
+        <is>
+          <t>Sem</t>
+        </is>
+      </c>
+      <c r="C4" s="6" t="n">
+        <v>91</v>
+      </c>
+      <c r="D4" s="6" t="n">
+        <v>93</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>52</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>65</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>39</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>87</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>93</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>52</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>65</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>39</v>
+      </c>
+      <c r="M4" s="6" t="n">
+        <v>87</v>
+      </c>
+      <c r="N4" s="6" t="n">
+        <v>43</v>
+      </c>
+      <c r="O4" s="6" t="n">
+        <v>55</v>
+      </c>
+      <c r="P4" s="6" t="n">
+        <v>39</v>
+      </c>
+      <c r="Q4" s="6" t="n">
+        <v>74</v>
+      </c>
+      <c r="R4" s="6" t="n">
+        <v>76</v>
+      </c>
+      <c r="S4" s="6" t="n">
+        <v>85</v>
+      </c>
+      <c r="T4" s="6" t="n">
+        <v>92</v>
+      </c>
+      <c r="U4" s="6" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="6" t="inlineStr">
+        <is>
+          <t>99004355</t>
+        </is>
+      </c>
+      <c r="B5" s="6" t="inlineStr">
+        <is>
+          <t>Sem</t>
+        </is>
+      </c>
+      <c r="C5" s="6" t="n">
+        <v>49</v>
+      </c>
+      <c r="D5" s="6" t="n">
+        <v>93</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>91</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>87</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>49</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>93</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>52</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>65</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>39</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>87</v>
+      </c>
+      <c r="M5" s="6" t="n">
+        <v>43</v>
+      </c>
+      <c r="N5" s="6" t="n">
+        <v>55</v>
+      </c>
+      <c r="O5" s="6" t="n">
+        <v>65</v>
+      </c>
+      <c r="P5" s="6" t="n">
+        <v>99</v>
+      </c>
+      <c r="Q5" s="6" t="n">
+        <v>91</v>
+      </c>
+      <c r="R5" s="6" t="n">
+        <v>79</v>
+      </c>
+      <c r="S5" s="6" t="n">
+        <v>99</v>
+      </c>
+      <c r="T5" s="6" t="n">
+        <v>91</v>
+      </c>
+      <c r="U5" s="6" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="6" t="inlineStr">
+        <is>
+          <t>99004360</t>
+        </is>
+      </c>
+      <c r="B6" s="6" t="inlineStr">
+        <is>
+          <t>Sem</t>
+        </is>
+      </c>
+      <c r="C6" s="6" t="n">
+        <v>82</v>
+      </c>
+      <c r="D6" s="6" t="n">
+        <v>93</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>91</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>87</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>52</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>65</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>39</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>87</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>43</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>55</v>
+      </c>
+      <c r="M6" s="6" t="n">
+        <v>65</v>
+      </c>
+      <c r="N6" s="6" t="n">
+        <v>99</v>
+      </c>
+      <c r="O6" s="6" t="n">
+        <v>91</v>
+      </c>
+      <c r="P6" s="6" t="n">
+        <v>39</v>
+      </c>
+      <c r="Q6" s="6" t="n">
+        <v>87</v>
+      </c>
+      <c r="R6" s="6" t="n">
+        <v>39</v>
+      </c>
+      <c r="S6" s="6" t="n">
+        <v>99</v>
+      </c>
+      <c r="T6" s="6" t="n">
+        <v>91</v>
+      </c>
+      <c r="U6" s="6" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="6" t="inlineStr">
+        <is>
+          <t>99004359</t>
+        </is>
+      </c>
+      <c r="B7" s="6" t="inlineStr">
+        <is>
+          <t>Sem</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>45</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>82</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>49</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>93</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>91</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>87</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>52</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>65</v>
+      </c>
+      <c r="M7" s="6" t="n">
+        <v>39</v>
+      </c>
+      <c r="N7" s="6" t="n">
+        <v>87</v>
+      </c>
+      <c r="O7" s="6" t="n">
+        <v>43</v>
+      </c>
+      <c r="P7" s="6" t="n">
+        <v>93</v>
+      </c>
+      <c r="Q7" s="6" t="n">
+        <v>99</v>
+      </c>
+      <c r="R7" s="6" t="n">
+        <v>91</v>
+      </c>
+      <c r="S7" s="6" t="n">
+        <v>39</v>
+      </c>
+      <c r="T7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" s="6" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>99004351</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Sem</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>93</v>
+      </c>
+      <c r="D8" t="n">
+        <v>52</v>
+      </c>
+      <c r="E8" t="n">
+        <v>65</v>
+      </c>
+      <c r="F8" t="n">
+        <v>39</v>
+      </c>
+      <c r="G8" t="n">
+        <v>87</v>
+      </c>
+      <c r="H8" t="n">
+        <v>43</v>
+      </c>
+      <c r="I8" t="n">
+        <v>55</v>
+      </c>
+      <c r="J8" t="n">
+        <v>65</v>
+      </c>
+      <c r="K8" t="n">
+        <v>99</v>
+      </c>
+      <c r="L8" t="n">
+        <v>91</v>
+      </c>
+      <c r="M8" t="n">
+        <v>64</v>
+      </c>
+      <c r="N8" t="n">
+        <v>75</v>
+      </c>
+      <c r="O8" t="n">
+        <v>79</v>
+      </c>
+      <c r="P8" t="n">
+        <v>86</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>44</v>
+      </c>
+      <c r="R8" t="n">
+        <v>75</v>
+      </c>
+      <c r="S8" t="n">
+        <v>98</v>
+      </c>
+      <c r="T8" t="n">
+        <v>23</v>
+      </c>
+      <c r="U8" t="n">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C2:U2"/>
+  </mergeCells>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="0" useFirstPageNumber="0" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
 </worksheet>
 </file>
--- a/Implementation/Outputs.xlsx
+++ b/Implementation/Outputs.xlsx
@@ -484,7 +484,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:V8"/>
+  <dimension ref="A1:V9"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
@@ -973,72 +973,141 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="6" t="inlineStr">
         <is>
           <t>99004351</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" s="6" t="inlineStr">
         <is>
           <t>Sem</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C8" s="6" t="n">
         <v>93</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8" s="6" t="n">
         <v>52</v>
       </c>
-      <c r="E8" t="n">
-        <v>65</v>
-      </c>
-      <c r="F8" t="n">
-        <v>39</v>
-      </c>
-      <c r="G8" t="n">
+      <c r="E8" s="6" t="n">
+        <v>65</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>39</v>
+      </c>
+      <c r="G8" s="6" t="n">
         <v>87</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8" s="6" t="n">
         <v>43</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I8" s="6" t="n">
         <v>55</v>
       </c>
-      <c r="J8" t="n">
-        <v>65</v>
-      </c>
-      <c r="K8" t="n">
+      <c r="J8" s="6" t="n">
+        <v>65</v>
+      </c>
+      <c r="K8" s="6" t="n">
         <v>99</v>
       </c>
-      <c r="L8" t="n">
-        <v>91</v>
-      </c>
-      <c r="M8" t="n">
+      <c r="L8" s="6" t="n">
+        <v>91</v>
+      </c>
+      <c r="M8" s="6" t="n">
         <v>64</v>
       </c>
-      <c r="N8" t="n">
+      <c r="N8" s="6" t="n">
         <v>75</v>
       </c>
-      <c r="O8" t="n">
+      <c r="O8" s="6" t="n">
         <v>79</v>
       </c>
-      <c r="P8" t="n">
+      <c r="P8" s="6" t="n">
         <v>86</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="Q8" s="6" t="n">
         <v>44</v>
       </c>
-      <c r="R8" t="n">
+      <c r="R8" s="6" t="n">
         <v>75</v>
       </c>
-      <c r="S8" t="n">
+      <c r="S8" s="6" t="n">
         <v>98</v>
       </c>
-      <c r="T8" t="n">
+      <c r="T8" s="6" t="n">
         <v>23</v>
       </c>
-      <c r="U8" t="n">
-        <v>91</v>
+      <c r="U8" s="6" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>99004354</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Sem</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>82</v>
+      </c>
+      <c r="D9" t="n">
+        <v>49</v>
+      </c>
+      <c r="E9" t="n">
+        <v>45</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>6</v>
+      </c>
+      <c r="H9" t="n">
+        <v>24</v>
+      </c>
+      <c r="I9" t="n">
+        <v>93</v>
+      </c>
+      <c r="J9" t="n">
+        <v>52</v>
+      </c>
+      <c r="K9" t="n">
+        <v>65</v>
+      </c>
+      <c r="L9" t="n">
+        <v>39</v>
+      </c>
+      <c r="M9" t="n">
+        <v>87</v>
+      </c>
+      <c r="N9" t="n">
+        <v>43</v>
+      </c>
+      <c r="O9" t="n">
+        <v>55</v>
+      </c>
+      <c r="P9" t="n">
+        <v>93</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>93</v>
+      </c>
+      <c r="R9" t="n">
+        <v>52</v>
+      </c>
+      <c r="S9" t="n">
+        <v>65</v>
+      </c>
+      <c r="T9" t="n">
+        <v>39</v>
+      </c>
+      <c r="U9" t="n">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/Implementation/Outputs.xlsx
+++ b/Implementation/Outputs.xlsx
@@ -484,7 +484,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:V9"/>
+  <dimension ref="A1:V13"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
@@ -765,7 +765,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" ht="13.8" customHeight="1" s="7">
       <c r="A5" s="6" t="inlineStr">
         <is>
           <t>99004355</t>
@@ -834,7 +834,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" ht="13.8" customHeight="1" s="7">
       <c r="A6" s="6" t="inlineStr">
         <is>
           <t>99004360</t>
@@ -903,7 +903,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" ht="13.8" customHeight="1" s="7">
       <c r="A7" s="6" t="inlineStr">
         <is>
           <t>99004359</t>
@@ -972,7 +972,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" ht="13.8" customHeight="1" s="7">
       <c r="A8" s="6" t="inlineStr">
         <is>
           <t>99004351</t>
@@ -1041,73 +1041,425 @@
         <v>91</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+    <row r="9" ht="13.8" customHeight="1" s="7">
+      <c r="A9" s="6" t="inlineStr">
         <is>
           <t>99004354</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" s="6" t="inlineStr">
         <is>
           <t>Sem</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C9" s="6" t="n">
         <v>82</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9" s="6" t="n">
         <v>49</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9" s="6" t="n">
         <v>45</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9" s="6" t="n">
         <v>24</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I9" s="6" t="n">
         <v>93</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J9" s="6" t="n">
         <v>52</v>
       </c>
-      <c r="K9" t="n">
-        <v>65</v>
-      </c>
-      <c r="L9" t="n">
-        <v>39</v>
-      </c>
-      <c r="M9" t="n">
-        <v>87</v>
-      </c>
-      <c r="N9" t="n">
+      <c r="K9" s="6" t="n">
+        <v>65</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>39</v>
+      </c>
+      <c r="M9" s="6" t="n">
+        <v>87</v>
+      </c>
+      <c r="N9" s="6" t="n">
         <v>43</v>
       </c>
-      <c r="O9" t="n">
+      <c r="O9" s="6" t="n">
         <v>55</v>
       </c>
-      <c r="P9" t="n">
+      <c r="P9" s="6" t="n">
         <v>93</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="Q9" s="6" t="n">
         <v>93</v>
       </c>
-      <c r="R9" t="n">
+      <c r="R9" s="6" t="n">
         <v>52</v>
       </c>
-      <c r="S9" t="n">
-        <v>65</v>
-      </c>
-      <c r="T9" t="n">
-        <v>39</v>
-      </c>
-      <c r="U9" t="n">
-        <v>39</v>
+      <c r="S9" s="6" t="n">
+        <v>65</v>
+      </c>
+      <c r="T9" s="6" t="n">
+        <v>39</v>
+      </c>
+      <c r="U9" s="6" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" ht="13.8" customHeight="1" s="7">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>99004364</t>
+        </is>
+      </c>
+      <c r="B10" s="6" t="inlineStr">
+        <is>
+          <t>Sem</t>
+        </is>
+      </c>
+      <c r="C10" s="6" t="n">
+        <v>87</v>
+      </c>
+      <c r="D10" s="6" t="n">
+        <v>43</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>93</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>99</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>91</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>39</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>87</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>43</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>55</v>
+      </c>
+      <c r="M10" s="6" t="n">
+        <v>65</v>
+      </c>
+      <c r="N10" s="6" t="n">
+        <v>99</v>
+      </c>
+      <c r="O10" s="6" t="n">
+        <v>91</v>
+      </c>
+      <c r="P10" s="6" t="n">
+        <v>93</v>
+      </c>
+      <c r="Q10" s="6" t="n">
+        <v>65</v>
+      </c>
+      <c r="R10" s="6" t="n">
+        <v>39</v>
+      </c>
+      <c r="S10" s="6" t="n">
+        <v>87</v>
+      </c>
+      <c r="T10" s="6" t="n">
+        <v>43</v>
+      </c>
+      <c r="U10" s="6" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" ht="13.8" customHeight="1" s="7">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>99004351</t>
+        </is>
+      </c>
+      <c r="B11" s="6" t="inlineStr">
+        <is>
+          <t>Hobbies</t>
+        </is>
+      </c>
+      <c r="C11" s="6" t="inlineStr">
+        <is>
+          <t>cricket</t>
+        </is>
+      </c>
+      <c r="D11" s="6" t="inlineStr">
+        <is>
+          <t>football</t>
+        </is>
+      </c>
+      <c r="E11" s="6" t="inlineStr">
+        <is>
+          <t>bowling</t>
+        </is>
+      </c>
+      <c r="F11" s="6" t="inlineStr">
+        <is>
+          <t>chess</t>
+        </is>
+      </c>
+      <c r="G11" s="6" t="inlineStr">
+        <is>
+          <t>travel</t>
+        </is>
+      </c>
+      <c r="H11" s="6" t="inlineStr">
+        <is>
+          <t>riding</t>
+        </is>
+      </c>
+      <c r="I11" s="6" t="inlineStr">
+        <is>
+          <t>racing</t>
+        </is>
+      </c>
+      <c r="J11" s="6" t="inlineStr">
+        <is>
+          <t>swim</t>
+        </is>
+      </c>
+      <c r="K11" s="6" t="inlineStr">
+        <is>
+          <t>games</t>
+        </is>
+      </c>
+      <c r="L11" s="6" t="inlineStr">
+        <is>
+          <t>video</t>
+        </is>
+      </c>
+      <c r="M11" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">photo </t>
+        </is>
+      </c>
+      <c r="N11" s="6" t="inlineStr">
+        <is>
+          <t>kabaddi</t>
+        </is>
+      </c>
+      <c r="O11" s="6" t="inlineStr">
+        <is>
+          <t>rugby</t>
+        </is>
+      </c>
+      <c r="P11" s="6" t="inlineStr">
+        <is>
+          <t>baseball</t>
+        </is>
+      </c>
+      <c r="Q11" s="6" t="inlineStr">
+        <is>
+          <t>handball</t>
+        </is>
+      </c>
+      <c r="R11" s="6" t="inlineStr">
+        <is>
+          <t>sprint</t>
+        </is>
+      </c>
+      <c r="S11" s="6" t="inlineStr">
+        <is>
+          <t>lifting</t>
+        </is>
+      </c>
+      <c r="T11" s="6" t="inlineStr">
+        <is>
+          <t>shooting</t>
+        </is>
+      </c>
+      <c r="U11" s="6" t="inlineStr">
+        <is>
+          <t>GTA</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>99004351</t>
+        </is>
+      </c>
+      <c r="B12" s="6" t="inlineStr">
+        <is>
+          <t>Sem</t>
+        </is>
+      </c>
+      <c r="C12" s="6" t="n">
+        <v>93</v>
+      </c>
+      <c r="D12" s="6" t="n">
+        <v>52</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>65</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>39</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>87</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>43</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>55</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>65</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>99</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>91</v>
+      </c>
+      <c r="M12" s="6" t="n">
+        <v>64</v>
+      </c>
+      <c r="N12" s="6" t="n">
+        <v>75</v>
+      </c>
+      <c r="O12" s="6" t="n">
+        <v>79</v>
+      </c>
+      <c r="P12" s="6" t="n">
+        <v>86</v>
+      </c>
+      <c r="Q12" s="6" t="n">
+        <v>44</v>
+      </c>
+      <c r="R12" s="6" t="n">
+        <v>75</v>
+      </c>
+      <c r="S12" s="6" t="n">
+        <v>98</v>
+      </c>
+      <c r="T12" s="6" t="n">
+        <v>23</v>
+      </c>
+      <c r="U12" s="6" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>99004362</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Domain</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>OP</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>PW</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>QI</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>OP</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>FS</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>NM</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>KI</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>KT</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>VF</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>OP</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>PW</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>QI</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>OP</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>FS</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/Implementation/Outputs.xlsx
+++ b/Implementation/Outputs.xlsx
@@ -484,7 +484,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:V13"/>
+  <dimension ref="A1:V19"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
@@ -1356,110 +1356,714 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" s="6" t="inlineStr">
         <is>
           <t>99004362</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" s="6" t="inlineStr">
         <is>
           <t>Domain</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C13" s="6" t="inlineStr">
         <is>
           <t>OP</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D13" s="6" t="inlineStr">
         <is>
           <t>PW</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E13" s="6" t="inlineStr">
         <is>
           <t>QI</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" s="6" t="inlineStr">
         <is>
           <t>OP</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="G13" s="6" t="inlineStr">
         <is>
           <t>JH</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="H13" s="6" t="inlineStr">
         <is>
           <t>FS</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="I13" s="6" t="inlineStr">
         <is>
           <t>CD</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="J13" s="6" t="inlineStr">
         <is>
           <t>NM</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="K13" s="6" t="inlineStr">
         <is>
           <t>JH</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="L13" s="6" t="inlineStr">
         <is>
           <t>KI</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="M13" s="6" t="inlineStr">
         <is>
           <t>KT</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="N13" s="6" t="inlineStr">
         <is>
           <t>VF</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
+      <c r="O13" s="6" t="inlineStr">
         <is>
           <t>OP</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
+      <c r="P13" s="6" t="inlineStr">
         <is>
           <t>PW</t>
         </is>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Q13" s="6" t="inlineStr">
         <is>
           <t>QI</t>
         </is>
       </c>
-      <c r="R13" t="inlineStr">
+      <c r="R13" s="6" t="inlineStr">
         <is>
           <t>OP</t>
         </is>
       </c>
-      <c r="S13" t="inlineStr">
+      <c r="S13" s="6" t="inlineStr">
         <is>
           <t>JH</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr">
+      <c r="T13" s="6" t="inlineStr">
         <is>
           <t>FS</t>
         </is>
       </c>
-      <c r="U13" t="inlineStr">
+      <c r="U13" s="6" t="inlineStr">
         <is>
           <t>CD</t>
         </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>99004351</t>
+        </is>
+      </c>
+      <c r="B14" s="6" t="inlineStr">
+        <is>
+          <t>Cities</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="inlineStr">
+        <is>
+          <t>hyderabad</t>
+        </is>
+      </c>
+      <c r="D14" s="6" t="inlineStr">
+        <is>
+          <t>bangalore</t>
+        </is>
+      </c>
+      <c r="E14" s="6" t="inlineStr">
+        <is>
+          <t>mumbai</t>
+        </is>
+      </c>
+      <c r="F14" s="6" t="inlineStr">
+        <is>
+          <t>chennai</t>
+        </is>
+      </c>
+      <c r="G14" s="6" t="inlineStr">
+        <is>
+          <t>indore</t>
+        </is>
+      </c>
+      <c r="H14" s="6" t="inlineStr">
+        <is>
+          <t>matura</t>
+        </is>
+      </c>
+      <c r="I14" s="6" t="inlineStr">
+        <is>
+          <t>shimla</t>
+        </is>
+      </c>
+      <c r="J14" s="6" t="inlineStr">
+        <is>
+          <t>jammu</t>
+        </is>
+      </c>
+      <c r="K14" s="6" t="inlineStr">
+        <is>
+          <t>shimla</t>
+        </is>
+      </c>
+      <c r="L14" s="6" t="inlineStr">
+        <is>
+          <t>shimla</t>
+        </is>
+      </c>
+      <c r="M14" s="6" t="inlineStr">
+        <is>
+          <t>jammu</t>
+        </is>
+      </c>
+      <c r="N14" s="6" t="inlineStr">
+        <is>
+          <t>bangalore</t>
+        </is>
+      </c>
+      <c r="O14" s="6" t="inlineStr">
+        <is>
+          <t>mumbai</t>
+        </is>
+      </c>
+      <c r="P14" s="6" t="inlineStr">
+        <is>
+          <t>chennai</t>
+        </is>
+      </c>
+      <c r="Q14" s="6" t="inlineStr">
+        <is>
+          <t>indore</t>
+        </is>
+      </c>
+      <c r="R14" s="6" t="inlineStr">
+        <is>
+          <t>matura</t>
+        </is>
+      </c>
+      <c r="S14" s="6" t="inlineStr">
+        <is>
+          <t>shimla</t>
+        </is>
+      </c>
+      <c r="T14" s="6" t="inlineStr">
+        <is>
+          <t>jammu</t>
+        </is>
+      </c>
+      <c r="U14" s="6" t="inlineStr">
+        <is>
+          <t>matura</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="6" t="inlineStr">
+        <is>
+          <t>99004362</t>
+        </is>
+      </c>
+      <c r="B15" s="6" t="inlineStr">
+        <is>
+          <t>Cities</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="inlineStr">
+        <is>
+          <t>hyderabad</t>
+        </is>
+      </c>
+      <c r="D15" s="6" t="inlineStr">
+        <is>
+          <t>bangalore</t>
+        </is>
+      </c>
+      <c r="E15" s="6" t="inlineStr">
+        <is>
+          <t>mumbai</t>
+        </is>
+      </c>
+      <c r="F15" s="6" t="inlineStr">
+        <is>
+          <t>chennai</t>
+        </is>
+      </c>
+      <c r="G15" s="6" t="inlineStr">
+        <is>
+          <t>indore</t>
+        </is>
+      </c>
+      <c r="H15" s="6" t="inlineStr">
+        <is>
+          <t>matura</t>
+        </is>
+      </c>
+      <c r="I15" s="6" t="inlineStr">
+        <is>
+          <t>shimla</t>
+        </is>
+      </c>
+      <c r="J15" s="6" t="inlineStr">
+        <is>
+          <t>jammu</t>
+        </is>
+      </c>
+      <c r="K15" s="6" t="inlineStr">
+        <is>
+          <t>indore</t>
+        </is>
+      </c>
+      <c r="L15" s="6" t="inlineStr">
+        <is>
+          <t>mangalore</t>
+        </is>
+      </c>
+      <c r="M15" s="6" t="inlineStr">
+        <is>
+          <t>kochi</t>
+        </is>
+      </c>
+      <c r="N15" s="6" t="inlineStr">
+        <is>
+          <t>kota</t>
+        </is>
+      </c>
+      <c r="O15" s="6" t="inlineStr">
+        <is>
+          <t>jaipur</t>
+        </is>
+      </c>
+      <c r="P15" s="6" t="inlineStr">
+        <is>
+          <t>shimla</t>
+        </is>
+      </c>
+      <c r="Q15" s="6" t="inlineStr">
+        <is>
+          <t>jammu</t>
+        </is>
+      </c>
+      <c r="R15" s="6" t="inlineStr">
+        <is>
+          <t>cuttack</t>
+        </is>
+      </c>
+      <c r="S15" s="6" t="inlineStr">
+        <is>
+          <t>sambalpur</t>
+        </is>
+      </c>
+      <c r="T15" s="6" t="inlineStr">
+        <is>
+          <t>vijaywada</t>
+        </is>
+      </c>
+      <c r="U15" s="6" t="inlineStr">
+        <is>
+          <t>cuttack</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="6" t="inlineStr">
+        <is>
+          <t>99004351</t>
+        </is>
+      </c>
+      <c r="B16" s="6" t="inlineStr">
+        <is>
+          <t>Hobbies</t>
+        </is>
+      </c>
+      <c r="C16" s="6" t="inlineStr">
+        <is>
+          <t>cricket</t>
+        </is>
+      </c>
+      <c r="D16" s="6" t="inlineStr">
+        <is>
+          <t>football</t>
+        </is>
+      </c>
+      <c r="E16" s="6" t="inlineStr">
+        <is>
+          <t>bowling</t>
+        </is>
+      </c>
+      <c r="F16" s="6" t="inlineStr">
+        <is>
+          <t>chess</t>
+        </is>
+      </c>
+      <c r="G16" s="6" t="inlineStr">
+        <is>
+          <t>travel</t>
+        </is>
+      </c>
+      <c r="H16" s="6" t="inlineStr">
+        <is>
+          <t>riding</t>
+        </is>
+      </c>
+      <c r="I16" s="6" t="inlineStr">
+        <is>
+          <t>racing</t>
+        </is>
+      </c>
+      <c r="J16" s="6" t="inlineStr">
+        <is>
+          <t>swim</t>
+        </is>
+      </c>
+      <c r="K16" s="6" t="inlineStr">
+        <is>
+          <t>games</t>
+        </is>
+      </c>
+      <c r="L16" s="6" t="inlineStr">
+        <is>
+          <t>video</t>
+        </is>
+      </c>
+      <c r="M16" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">photo </t>
+        </is>
+      </c>
+      <c r="N16" s="6" t="inlineStr">
+        <is>
+          <t>kabaddi</t>
+        </is>
+      </c>
+      <c r="O16" s="6" t="inlineStr">
+        <is>
+          <t>rugby</t>
+        </is>
+      </c>
+      <c r="P16" s="6" t="inlineStr">
+        <is>
+          <t>baseball</t>
+        </is>
+      </c>
+      <c r="Q16" s="6" t="inlineStr">
+        <is>
+          <t>handball</t>
+        </is>
+      </c>
+      <c r="R16" s="6" t="inlineStr">
+        <is>
+          <t>sprint</t>
+        </is>
+      </c>
+      <c r="S16" s="6" t="inlineStr">
+        <is>
+          <t>lifting</t>
+        </is>
+      </c>
+      <c r="T16" s="6" t="inlineStr">
+        <is>
+          <t>shooting</t>
+        </is>
+      </c>
+      <c r="U16" s="6" t="inlineStr">
+        <is>
+          <t>GTA</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="6" t="inlineStr">
+        <is>
+          <t>99004360</t>
+        </is>
+      </c>
+      <c r="B17" s="6" t="inlineStr">
+        <is>
+          <t>Hobbies</t>
+        </is>
+      </c>
+      <c r="C17" s="6" t="inlineStr">
+        <is>
+          <t>shooting</t>
+        </is>
+      </c>
+      <c r="D17" s="6" t="inlineStr">
+        <is>
+          <t>GTA</t>
+        </is>
+      </c>
+      <c r="E17" s="6" t="inlineStr">
+        <is>
+          <t>kabaddi</t>
+        </is>
+      </c>
+      <c r="F17" s="6" t="inlineStr">
+        <is>
+          <t>sprint</t>
+        </is>
+      </c>
+      <c r="G17" s="6" t="inlineStr">
+        <is>
+          <t>lifting</t>
+        </is>
+      </c>
+      <c r="H17" s="6" t="inlineStr">
+        <is>
+          <t>shooting</t>
+        </is>
+      </c>
+      <c r="I17" s="6" t="inlineStr">
+        <is>
+          <t>GTA</t>
+        </is>
+      </c>
+      <c r="J17" s="6" t="inlineStr">
+        <is>
+          <t>handball</t>
+        </is>
+      </c>
+      <c r="K17" s="6" t="inlineStr">
+        <is>
+          <t>rugby</t>
+        </is>
+      </c>
+      <c r="L17" s="6" t="inlineStr">
+        <is>
+          <t>baseball</t>
+        </is>
+      </c>
+      <c r="M17" s="6" t="inlineStr">
+        <is>
+          <t>handball</t>
+        </is>
+      </c>
+      <c r="N17" s="6" t="inlineStr">
+        <is>
+          <t>sprint</t>
+        </is>
+      </c>
+      <c r="O17" s="6" t="inlineStr">
+        <is>
+          <t>baseball</t>
+        </is>
+      </c>
+      <c r="P17" s="6" t="inlineStr">
+        <is>
+          <t>kabaddi</t>
+        </is>
+      </c>
+      <c r="Q17" s="6" t="inlineStr">
+        <is>
+          <t>rugby</t>
+        </is>
+      </c>
+      <c r="R17" s="6" t="inlineStr">
+        <is>
+          <t>baseball</t>
+        </is>
+      </c>
+      <c r="S17" s="6" t="inlineStr">
+        <is>
+          <t>handball</t>
+        </is>
+      </c>
+      <c r="T17" s="6" t="inlineStr">
+        <is>
+          <t>sprint</t>
+        </is>
+      </c>
+      <c r="U17" s="6" t="inlineStr">
+        <is>
+          <t>rugby</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="6" t="inlineStr">
+        <is>
+          <t>99004351</t>
+        </is>
+      </c>
+      <c r="B18" s="6" t="inlineStr">
+        <is>
+          <t>PL</t>
+        </is>
+      </c>
+      <c r="C18" s="6" t="inlineStr">
+        <is>
+          <t>java</t>
+        </is>
+      </c>
+      <c r="D18" s="6" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="E18" s="6" t="inlineStr">
+        <is>
+          <t>cpp</t>
+        </is>
+      </c>
+      <c r="F18" s="6" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="G18" s="6" t="inlineStr">
+        <is>
+          <t>java</t>
+        </is>
+      </c>
+      <c r="H18" s="6" t="inlineStr">
+        <is>
+          <t>.net</t>
+        </is>
+      </c>
+      <c r="I18" s="6" t="inlineStr">
+        <is>
+          <t>aql</t>
+        </is>
+      </c>
+      <c r="J18" s="6" t="inlineStr">
+        <is>
+          <t>php</t>
+        </is>
+      </c>
+      <c r="K18" s="6" t="inlineStr">
+        <is>
+          <t>selenum</t>
+        </is>
+      </c>
+      <c r="L18" s="6" t="inlineStr">
+        <is>
+          <t>hadoop</t>
+        </is>
+      </c>
+      <c r="M18" s="6" t="inlineStr">
+        <is>
+          <t>spark</t>
+        </is>
+      </c>
+      <c r="N18" s="6" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="O18" s="6" t="inlineStr">
+        <is>
+          <t>algorithm</t>
+        </is>
+      </c>
+      <c r="P18" s="6" t="inlineStr">
+        <is>
+          <t>dbms</t>
+        </is>
+      </c>
+      <c r="Q18" s="6" t="inlineStr">
+        <is>
+          <t>data st</t>
+        </is>
+      </c>
+      <c r="R18" s="6" t="inlineStr">
+        <is>
+          <t>java</t>
+        </is>
+      </c>
+      <c r="S18" s="6" t="inlineStr">
+        <is>
+          <t>.net</t>
+        </is>
+      </c>
+      <c r="T18" s="6" t="inlineStr">
+        <is>
+          <t>sql</t>
+        </is>
+      </c>
+      <c r="U18" s="6" t="inlineStr">
+        <is>
+          <t>Hql</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>99004359</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Sem</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>45</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>6</v>
+      </c>
+      <c r="F19" t="n">
+        <v>82</v>
+      </c>
+      <c r="G19" t="n">
+        <v>49</v>
+      </c>
+      <c r="H19" t="n">
+        <v>93</v>
+      </c>
+      <c r="I19" t="n">
+        <v>91</v>
+      </c>
+      <c r="J19" t="n">
+        <v>87</v>
+      </c>
+      <c r="K19" t="n">
+        <v>52</v>
+      </c>
+      <c r="L19" t="n">
+        <v>65</v>
+      </c>
+      <c r="M19" t="n">
+        <v>39</v>
+      </c>
+      <c r="N19" t="n">
+        <v>87</v>
+      </c>
+      <c r="O19" t="n">
+        <v>43</v>
+      </c>
+      <c r="P19" t="n">
+        <v>93</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>99</v>
+      </c>
+      <c r="R19" t="n">
+        <v>91</v>
+      </c>
+      <c r="S19" t="n">
+        <v>39</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/Implementation/Outputs.xlsx
+++ b/Implementation/Outputs.xlsx
@@ -484,14 +484,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:V19"/>
+  <dimension ref="A1:V22"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C301" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I13" activeCellId="0" sqref="I13"/>
+      <selection pane="bottomLeft" activeCell="A301" activeCellId="0" sqref="A301"/>
+      <selection pane="bottomRight" activeCell="C318" activeCellId="0" sqref="C318"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.62890625" defaultRowHeight="13.8" zeroHeight="0" outlineLevelRow="0"/>
@@ -1286,7 +1286,7 @@
         </is>
       </c>
     </row>
-    <row r="12">
+    <row r="12" ht="13.8" customHeight="1" s="7">
       <c r="A12" s="6" t="inlineStr">
         <is>
           <t>99004351</t>
@@ -1355,7 +1355,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" ht="13.8" customHeight="1" s="7">
       <c r="A13" s="6" t="inlineStr">
         <is>
           <t>99004362</t>
@@ -1462,7 +1462,7 @@
         </is>
       </c>
     </row>
-    <row r="14">
+    <row r="14" ht="13.8" customHeight="1" s="7">
       <c r="A14" s="6" t="inlineStr">
         <is>
           <t>99004351</t>
@@ -1569,7 +1569,7 @@
         </is>
       </c>
     </row>
-    <row r="15">
+    <row r="15" ht="13.8" customHeight="1" s="7">
       <c r="A15" s="6" t="inlineStr">
         <is>
           <t>99004362</t>
@@ -1676,7 +1676,7 @@
         </is>
       </c>
     </row>
-    <row r="16">
+    <row r="16" ht="13.8" customHeight="1" s="7">
       <c r="A16" s="6" t="inlineStr">
         <is>
           <t>99004351</t>
@@ -1783,7 +1783,7 @@
         </is>
       </c>
     </row>
-    <row r="17">
+    <row r="17" ht="13.8" customHeight="1" s="7">
       <c r="A17" s="6" t="inlineStr">
         <is>
           <t>99004360</t>
@@ -1890,7 +1890,7 @@
         </is>
       </c>
     </row>
-    <row r="18">
+    <row r="18" ht="13.8" customHeight="1" s="7">
       <c r="A18" s="6" t="inlineStr">
         <is>
           <t>99004351</t>
@@ -1998,72 +1998,431 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>99004359</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Sem</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>45</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>6</v>
-      </c>
-      <c r="F19" t="n">
-        <v>82</v>
-      </c>
-      <c r="G19" t="n">
-        <v>49</v>
-      </c>
-      <c r="H19" t="n">
-        <v>93</v>
-      </c>
-      <c r="I19" t="n">
-        <v>91</v>
-      </c>
-      <c r="J19" t="n">
-        <v>87</v>
-      </c>
-      <c r="K19" t="n">
-        <v>52</v>
-      </c>
-      <c r="L19" t="n">
-        <v>65</v>
-      </c>
-      <c r="M19" t="n">
-        <v>39</v>
-      </c>
-      <c r="N19" t="n">
-        <v>87</v>
-      </c>
-      <c r="O19" t="n">
-        <v>43</v>
-      </c>
-      <c r="P19" t="n">
-        <v>93</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>99</v>
-      </c>
-      <c r="R19" t="n">
-        <v>91</v>
-      </c>
-      <c r="S19" t="n">
-        <v>39</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>43</v>
+      <c r="A19" s="6" t="inlineStr">
+        <is>
+          <t>99004352</t>
+        </is>
+      </c>
+      <c r="B19" s="6" t="inlineStr">
+        <is>
+          <t>PL</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="D19" s="6" t="inlineStr">
+        <is>
+          <t>algorithm</t>
+        </is>
+      </c>
+      <c r="E19" s="6" t="inlineStr">
+        <is>
+          <t>dbms</t>
+        </is>
+      </c>
+      <c r="F19" s="6" t="inlineStr">
+        <is>
+          <t>data st</t>
+        </is>
+      </c>
+      <c r="G19" s="6" t="inlineStr">
+        <is>
+          <t>php</t>
+        </is>
+      </c>
+      <c r="H19" s="6" t="inlineStr">
+        <is>
+          <t>selenum</t>
+        </is>
+      </c>
+      <c r="I19" s="6" t="inlineStr">
+        <is>
+          <t>hadoop</t>
+        </is>
+      </c>
+      <c r="J19" s="6" t="inlineStr">
+        <is>
+          <t>spark</t>
+        </is>
+      </c>
+      <c r="K19" s="6" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="L19" s="6" t="inlineStr">
+        <is>
+          <t>algorithm</t>
+        </is>
+      </c>
+      <c r="M19" s="6" t="inlineStr">
+        <is>
+          <t>dbms</t>
+        </is>
+      </c>
+      <c r="N19" s="6" t="inlineStr">
+        <is>
+          <t>data st</t>
+        </is>
+      </c>
+      <c r="O19" s="6" t="inlineStr">
+        <is>
+          <t>Hive</t>
+        </is>
+      </c>
+      <c r="P19" s="6" t="inlineStr">
+        <is>
+          <t>pig</t>
+        </is>
+      </c>
+      <c r="Q19" s="6" t="inlineStr">
+        <is>
+          <t>sqoop</t>
+        </is>
+      </c>
+      <c r="R19" s="6" t="inlineStr">
+        <is>
+          <t>MapR</t>
+        </is>
+      </c>
+      <c r="S19" s="6" t="inlineStr">
+        <is>
+          <t>AWS</t>
+        </is>
+      </c>
+      <c r="T19" s="6" t="inlineStr">
+        <is>
+          <t>GCP</t>
+        </is>
+      </c>
+      <c r="U19" s="6" t="inlineStr">
+        <is>
+          <t>Azure</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="6" t="inlineStr">
+        <is>
+          <t>99004352</t>
+        </is>
+      </c>
+      <c r="B20" s="6" t="inlineStr">
+        <is>
+          <t>Domain</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="inlineStr">
+        <is>
+          <t>AA</t>
+        </is>
+      </c>
+      <c r="D20" s="6" t="inlineStr">
+        <is>
+          <t>QW</t>
+        </is>
+      </c>
+      <c r="E20" s="6" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+      <c r="F20" s="6" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G20" s="6" t="inlineStr">
+        <is>
+          <t>WQ</t>
+        </is>
+      </c>
+      <c r="H20" s="6" t="inlineStr">
+        <is>
+          <t>XS</t>
+        </is>
+      </c>
+      <c r="I20" s="6" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
+      <c r="J20" s="6" t="inlineStr">
+        <is>
+          <t>KI</t>
+        </is>
+      </c>
+      <c r="K20" s="6" t="inlineStr">
+        <is>
+          <t>KT</t>
+        </is>
+      </c>
+      <c r="L20" s="6" t="inlineStr">
+        <is>
+          <t>KA</t>
+        </is>
+      </c>
+      <c r="M20" s="6" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="N20" s="6" t="inlineStr">
+        <is>
+          <t>VF</t>
+        </is>
+      </c>
+      <c r="O20" s="6" t="inlineStr">
+        <is>
+          <t>OP</t>
+        </is>
+      </c>
+      <c r="P20" s="6" t="inlineStr">
+        <is>
+          <t>PW</t>
+        </is>
+      </c>
+      <c r="Q20" s="6" t="inlineStr">
+        <is>
+          <t>QI</t>
+        </is>
+      </c>
+      <c r="R20" s="6" t="inlineStr">
+        <is>
+          <t>OP</t>
+        </is>
+      </c>
+      <c r="S20" s="6" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
+      <c r="T20" s="6" t="inlineStr">
+        <is>
+          <t>FS</t>
+        </is>
+      </c>
+      <c r="U20" s="6" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="6" t="inlineStr">
+        <is>
+          <t>99004354</t>
+        </is>
+      </c>
+      <c r="B21" s="6" t="inlineStr">
+        <is>
+          <t>Hobbies</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="inlineStr">
+        <is>
+          <t>IGI</t>
+        </is>
+      </c>
+      <c r="D21" s="6" t="inlineStr">
+        <is>
+          <t>pubg</t>
+        </is>
+      </c>
+      <c r="E21" s="6" t="inlineStr">
+        <is>
+          <t>COD</t>
+        </is>
+      </c>
+      <c r="F21" s="6" t="inlineStr">
+        <is>
+          <t>kabaddi</t>
+        </is>
+      </c>
+      <c r="G21" s="6" t="inlineStr">
+        <is>
+          <t>rugby</t>
+        </is>
+      </c>
+      <c r="H21" s="6" t="inlineStr">
+        <is>
+          <t>baseball</t>
+        </is>
+      </c>
+      <c r="I21" s="6" t="inlineStr">
+        <is>
+          <t>handball</t>
+        </is>
+      </c>
+      <c r="J21" s="6" t="inlineStr">
+        <is>
+          <t>sprint</t>
+        </is>
+      </c>
+      <c r="K21" s="6" t="inlineStr">
+        <is>
+          <t>lifting</t>
+        </is>
+      </c>
+      <c r="L21" s="6" t="inlineStr">
+        <is>
+          <t>shooting</t>
+        </is>
+      </c>
+      <c r="M21" s="6" t="inlineStr">
+        <is>
+          <t>GTA</t>
+        </is>
+      </c>
+      <c r="N21" s="6" t="inlineStr">
+        <is>
+          <t>baseball</t>
+        </is>
+      </c>
+      <c r="O21" s="6" t="inlineStr">
+        <is>
+          <t>handball</t>
+        </is>
+      </c>
+      <c r="P21" s="6" t="inlineStr">
+        <is>
+          <t>rugby</t>
+        </is>
+      </c>
+      <c r="Q21" s="6" t="inlineStr">
+        <is>
+          <t>baseball</t>
+        </is>
+      </c>
+      <c r="R21" s="6" t="inlineStr">
+        <is>
+          <t>pubg</t>
+        </is>
+      </c>
+      <c r="S21" s="6" t="inlineStr">
+        <is>
+          <t>COD</t>
+        </is>
+      </c>
+      <c r="T21" s="6" t="inlineStr">
+        <is>
+          <t>kabaddi</t>
+        </is>
+      </c>
+      <c r="U21" s="6" t="inlineStr">
+        <is>
+          <t>rugby</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>99004362</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Cities</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>hyderabad</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>bangalore</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>mumbai</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>chennai</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>indore</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>matura</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>shimla</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>jammu</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>indore</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>mangalore</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>kochi</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>kota</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>jaipur</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>shimla</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>jammu</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>cuttack</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>sambalpur</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>vijaywada</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>cuttack</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/Implementation/Outputs.xlsx
+++ b/Implementation/Outputs.xlsx
@@ -484,7 +484,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:V22"/>
+  <dimension ref="A1:V24"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C301" activePane="bottomRight" state="frozen"/>
@@ -2319,109 +2319,323 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="A22" s="6" t="inlineStr">
         <is>
           <t>99004362</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" s="6" t="inlineStr">
         <is>
           <t>Cities</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C22" s="6" t="inlineStr">
         <is>
           <t>hyderabad</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="D22" s="6" t="inlineStr">
         <is>
           <t>bangalore</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="E22" s="6" t="inlineStr">
         <is>
           <t>mumbai</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="F22" s="6" t="inlineStr">
         <is>
           <t>chennai</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="G22" s="6" t="inlineStr">
         <is>
           <t>indore</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="H22" s="6" t="inlineStr">
         <is>
           <t>matura</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
+      <c r="I22" s="6" t="inlineStr">
         <is>
           <t>shimla</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr">
+      <c r="J22" s="6" t="inlineStr">
         <is>
           <t>jammu</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr">
+      <c r="K22" s="6" t="inlineStr">
         <is>
           <t>indore</t>
         </is>
       </c>
-      <c r="L22" t="inlineStr">
+      <c r="L22" s="6" t="inlineStr">
         <is>
           <t>mangalore</t>
         </is>
       </c>
-      <c r="M22" t="inlineStr">
+      <c r="M22" s="6" t="inlineStr">
         <is>
           <t>kochi</t>
         </is>
       </c>
-      <c r="N22" t="inlineStr">
+      <c r="N22" s="6" t="inlineStr">
         <is>
           <t>kota</t>
         </is>
       </c>
-      <c r="O22" t="inlineStr">
+      <c r="O22" s="6" t="inlineStr">
         <is>
           <t>jaipur</t>
         </is>
       </c>
-      <c r="P22" t="inlineStr">
+      <c r="P22" s="6" t="inlineStr">
         <is>
           <t>shimla</t>
         </is>
       </c>
-      <c r="Q22" t="inlineStr">
+      <c r="Q22" s="6" t="inlineStr">
         <is>
           <t>jammu</t>
         </is>
       </c>
-      <c r="R22" t="inlineStr">
+      <c r="R22" s="6" t="inlineStr">
         <is>
           <t>cuttack</t>
         </is>
       </c>
-      <c r="S22" t="inlineStr">
+      <c r="S22" s="6" t="inlineStr">
         <is>
           <t>sambalpur</t>
         </is>
       </c>
-      <c r="T22" t="inlineStr">
+      <c r="T22" s="6" t="inlineStr">
         <is>
           <t>vijaywada</t>
         </is>
       </c>
-      <c r="U22" t="inlineStr">
+      <c r="U22" s="6" t="inlineStr">
         <is>
           <t>cuttack</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="6" t="inlineStr">
+        <is>
+          <t>99004351</t>
+        </is>
+      </c>
+      <c r="B23" s="6" t="inlineStr">
+        <is>
+          <t>Domain</t>
+        </is>
+      </c>
+      <c r="C23" s="6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D23" s="6" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E23" s="6" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="F23" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="G23" s="6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="H23" s="6" t="inlineStr">
+        <is>
+          <t>FG</t>
+        </is>
+      </c>
+      <c r="I23" s="6" t="inlineStr">
+        <is>
+          <t>WE</t>
+        </is>
+      </c>
+      <c r="J23" s="6" t="inlineStr">
+        <is>
+          <t>DS</t>
+        </is>
+      </c>
+      <c r="K23" s="6" t="inlineStr">
+        <is>
+          <t>SS</t>
+        </is>
+      </c>
+      <c r="L23" s="6" t="inlineStr">
+        <is>
+          <t>VF</t>
+        </is>
+      </c>
+      <c r="M23" s="6" t="inlineStr">
+        <is>
+          <t>DS</t>
+        </is>
+      </c>
+      <c r="N23" s="6" t="inlineStr">
+        <is>
+          <t>GT</t>
+        </is>
+      </c>
+      <c r="O23" s="6" t="inlineStr">
+        <is>
+          <t>FD</t>
+        </is>
+      </c>
+      <c r="P23" s="6" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+      <c r="Q23" s="6" t="inlineStr">
+        <is>
+          <t>SW</t>
+        </is>
+      </c>
+      <c r="R23" s="6" t="inlineStr">
+        <is>
+          <t>AS</t>
+        </is>
+      </c>
+      <c r="S23" s="6" t="inlineStr">
+        <is>
+          <t>QW</t>
+        </is>
+      </c>
+      <c r="T23" s="6" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+      <c r="U23" s="6" t="inlineStr">
+        <is>
+          <t>RE</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>99004351</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Hobbies</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>cricket</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>football</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>bowling</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>chess</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>travel</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>riding</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>racing</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>swim</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>games</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>video</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">photo </t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>kabaddi</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>rugby</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>baseball</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>handball</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>sprint</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>lifting</t>
+        </is>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>shooting</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>GTA</t>
         </is>
       </c>
     </row>

--- a/Implementation/Outputs.xlsx
+++ b/Implementation/Outputs.xlsx
@@ -484,7 +484,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:V24"/>
+  <dimension ref="A1:V25"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C301" activePane="bottomRight" state="frozen"/>
@@ -2533,109 +2533,216 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" s="6" t="inlineStr">
         <is>
           <t>99004351</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" s="6" t="inlineStr">
         <is>
           <t>Hobbies</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C24" s="6" t="inlineStr">
         <is>
           <t>cricket</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="D24" s="6" t="inlineStr">
         <is>
           <t>football</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="E24" s="6" t="inlineStr">
         <is>
           <t>bowling</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="F24" s="6" t="inlineStr">
         <is>
           <t>chess</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="G24" s="6" t="inlineStr">
         <is>
           <t>travel</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="H24" s="6" t="inlineStr">
         <is>
           <t>riding</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
+      <c r="I24" s="6" t="inlineStr">
         <is>
           <t>racing</t>
         </is>
       </c>
-      <c r="J24" t="inlineStr">
+      <c r="J24" s="6" t="inlineStr">
         <is>
           <t>swim</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr">
+      <c r="K24" s="6" t="inlineStr">
         <is>
           <t>games</t>
         </is>
       </c>
-      <c r="L24" t="inlineStr">
+      <c r="L24" s="6" t="inlineStr">
         <is>
           <t>video</t>
         </is>
       </c>
-      <c r="M24" t="inlineStr">
+      <c r="M24" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">photo </t>
         </is>
       </c>
-      <c r="N24" t="inlineStr">
+      <c r="N24" s="6" t="inlineStr">
         <is>
           <t>kabaddi</t>
         </is>
       </c>
-      <c r="O24" t="inlineStr">
+      <c r="O24" s="6" t="inlineStr">
         <is>
           <t>rugby</t>
         </is>
       </c>
-      <c r="P24" t="inlineStr">
+      <c r="P24" s="6" t="inlineStr">
         <is>
           <t>baseball</t>
         </is>
       </c>
-      <c r="Q24" t="inlineStr">
+      <c r="Q24" s="6" t="inlineStr">
         <is>
           <t>handball</t>
         </is>
       </c>
-      <c r="R24" t="inlineStr">
+      <c r="R24" s="6" t="inlineStr">
         <is>
           <t>sprint</t>
         </is>
       </c>
-      <c r="S24" t="inlineStr">
+      <c r="S24" s="6" t="inlineStr">
         <is>
           <t>lifting</t>
         </is>
       </c>
-      <c r="T24" t="inlineStr">
+      <c r="T24" s="6" t="inlineStr">
         <is>
           <t>shooting</t>
         </is>
       </c>
-      <c r="U24" t="inlineStr">
+      <c r="U24" s="6" t="inlineStr">
         <is>
           <t>GTA</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>99004361</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>PL</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>spark</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Hive</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>pig</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>sqoop</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>selenum</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>hadoop</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>selenum</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>hadoop</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>spark</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>algorithm</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>dbms</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>data st</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>Hive</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>pig</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>sqoop</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>MapR</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>GCP</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>Linux</t>
         </is>
       </c>
     </row>

--- a/Implementation/Outputs.xlsx
+++ b/Implementation/Outputs.xlsx
@@ -484,7 +484,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:V25"/>
+  <dimension ref="A1:V26"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C301" activePane="bottomRight" state="frozen"/>
@@ -2640,110 +2640,179 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
+      <c r="A25" s="6" t="inlineStr">
         <is>
           <t>99004361</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" s="6" t="inlineStr">
         <is>
           <t>PL</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="C25" s="6" t="inlineStr">
         <is>
           <t>spark</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="D25" s="6" t="inlineStr">
         <is>
           <t>Hive</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="E25" s="6" t="inlineStr">
         <is>
           <t>pig</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="F25" s="6" t="inlineStr">
         <is>
           <t>sqoop</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="G25" s="6" t="inlineStr">
         <is>
           <t>selenum</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="H25" s="6" t="inlineStr">
         <is>
           <t>hadoop</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr">
+      <c r="I25" s="6" t="inlineStr">
         <is>
           <t>selenum</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr">
+      <c r="J25" s="6" t="inlineStr">
         <is>
           <t>hadoop</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr">
+      <c r="K25" s="6" t="inlineStr">
         <is>
           <t>spark</t>
         </is>
       </c>
-      <c r="L25" t="inlineStr">
+      <c r="L25" s="6" t="inlineStr">
         <is>
           <t>python</t>
         </is>
       </c>
-      <c r="M25" t="inlineStr">
+      <c r="M25" s="6" t="inlineStr">
         <is>
           <t>algorithm</t>
         </is>
       </c>
-      <c r="N25" t="inlineStr">
+      <c r="N25" s="6" t="inlineStr">
         <is>
           <t>dbms</t>
         </is>
       </c>
-      <c r="O25" t="inlineStr">
+      <c r="O25" s="6" t="inlineStr">
         <is>
           <t>data st</t>
         </is>
       </c>
-      <c r="P25" t="inlineStr">
+      <c r="P25" s="6" t="inlineStr">
         <is>
           <t>Hive</t>
         </is>
       </c>
-      <c r="Q25" t="inlineStr">
+      <c r="Q25" s="6" t="inlineStr">
         <is>
           <t>pig</t>
         </is>
       </c>
-      <c r="R25" t="inlineStr">
+      <c r="R25" s="6" t="inlineStr">
         <is>
           <t>sqoop</t>
         </is>
       </c>
-      <c r="S25" t="inlineStr">
+      <c r="S25" s="6" t="inlineStr">
         <is>
           <t>MapR</t>
         </is>
       </c>
-      <c r="T25" t="inlineStr">
+      <c r="T25" s="6" t="inlineStr">
         <is>
           <t>GCP</t>
         </is>
       </c>
-      <c r="U25" t="inlineStr">
+      <c r="U25" s="6" t="inlineStr">
         <is>
           <t>Linux</t>
         </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>99004351</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Sem</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>93</v>
+      </c>
+      <c r="D26" t="n">
+        <v>52</v>
+      </c>
+      <c r="E26" t="n">
+        <v>65</v>
+      </c>
+      <c r="F26" t="n">
+        <v>39</v>
+      </c>
+      <c r="G26" t="n">
+        <v>87</v>
+      </c>
+      <c r="H26" t="n">
+        <v>43</v>
+      </c>
+      <c r="I26" t="n">
+        <v>55</v>
+      </c>
+      <c r="J26" t="n">
+        <v>65</v>
+      </c>
+      <c r="K26" t="n">
+        <v>99</v>
+      </c>
+      <c r="L26" t="n">
+        <v>91</v>
+      </c>
+      <c r="M26" t="n">
+        <v>64</v>
+      </c>
+      <c r="N26" t="n">
+        <v>75</v>
+      </c>
+      <c r="O26" t="n">
+        <v>79</v>
+      </c>
+      <c r="P26" t="n">
+        <v>86</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>44</v>
+      </c>
+      <c r="R26" t="n">
+        <v>75</v>
+      </c>
+      <c r="S26" t="n">
+        <v>98</v>
+      </c>
+      <c r="T26" t="n">
+        <v>23</v>
+      </c>
+      <c r="U26" t="n">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
